--- a/resources/G3EI1/Students.xlsx
+++ b/resources/G3EI1/Students.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\GestionScolarite-XML\resources\G3EI1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D6A5345A-287A-4A2A-8693-FF7668622F46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C27CEB9F-7FC9-4AB6-B2F4-9F48B8E5EB64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{991361F8-3EA2-4635-BB5F-906497DA8E54}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{991361F8-3EA2-4635-BB5F-906497DA8E54}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -23,9 +23,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -34,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="32">
   <si>
     <t>G3EI1_FN1</t>
   </si>
@@ -109,6 +107,27 @@
   </si>
   <si>
     <t>G3EI1_LN10</t>
+  </si>
+  <si>
+    <t>CNE</t>
+  </si>
+  <si>
+    <t>FirstName</t>
+  </si>
+  <si>
+    <t>LastName</t>
+  </si>
+  <si>
+    <t>DateofBirth</t>
+  </si>
+  <si>
+    <t>ClasseName</t>
+  </si>
+  <si>
+    <t>Phone</t>
+  </si>
+  <si>
+    <t>Email</t>
   </si>
 </sst>
 </file>
@@ -159,10 +178,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -477,259 +497,282 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BCB8200-6F24-47CC-84E8-A4DCA3B88261}">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:I10"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="1">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2" s="1">
         <v>19000041</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2">
+      <c r="D2" s="2">
         <v>37595</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="1">
+      <c r="E2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="1">
         <v>676800387</v>
       </c>
-      <c r="G1" s="1" t="str">
-        <f>CONCATENATE(B1,".",C1,"@etu.uae.ac.ma")</f>
+      <c r="G2" s="1" t="str">
+        <f>CONCATENATE(B2,".",C2,"@etu.uae.ac.ma")</f>
         <v>G3EI1_FN1.G3EI1_LN1@etu.uae.ac.ma</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <f>A1+1</f>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3" s="1">
+        <f>A2+1</f>
         <v>19000042</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2" s="1">
+      <c r="E3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="1">
         <v>68391139</v>
       </c>
-      <c r="G2" s="1" t="str">
-        <f t="shared" ref="G2:G10" si="0">CONCATENATE(B2,".",C2,"@etu.uae.ac.ma")</f>
+      <c r="G3" s="1" t="str">
+        <f t="shared" ref="G3:G11" si="0">CONCATENATE(B3,".",C3,"@etu.uae.ac.ma")</f>
         <v>G3EI1_FN2.G3EI1_LN2@etu.uae.ac.ma</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <f t="shared" ref="A3:A10" si="1">A2+1</f>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A4" s="1">
+        <f t="shared" ref="A4:A11" si="1">A3+1</f>
         <v>19000043</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D4" s="2">
         <v>36688</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F3" s="1">
+      <c r="E4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F4" s="1">
         <v>711976500</v>
       </c>
-      <c r="G3" s="1" t="str">
+      <c r="G4" s="1" t="str">
         <f t="shared" si="0"/>
         <v>G3EI1_FN3.G3EI1_LN3@etu.uae.ac.ma</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A5" s="1">
         <f t="shared" si="1"/>
         <v>19000044</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D5" s="2">
         <v>36678</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F4" s="1">
+      <c r="E5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F5" s="1">
         <v>778128773</v>
       </c>
-      <c r="G4" s="1" t="str">
+      <c r="G5" s="1" t="str">
         <f t="shared" si="0"/>
         <v>G3EI1_FN4.G3EI1_LN4@etu.uae.ac.ma</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A6" s="1">
         <f t="shared" si="1"/>
         <v>19000045</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F5" s="1">
+      <c r="E6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F6" s="1">
         <v>678994006</v>
       </c>
-      <c r="G5" s="1" t="str">
+      <c r="G6" s="1" t="str">
         <f t="shared" si="0"/>
         <v>G3EI1_FN5.G3EI1_LN5@etu.uae.ac.ma</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A7" s="1">
         <f t="shared" si="1"/>
         <v>19000046</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C7" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D7" s="2">
         <v>37110</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F6" s="1">
+      <c r="E7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F7" s="1">
         <v>621236365</v>
       </c>
-      <c r="G6" s="1" t="str">
+      <c r="G7" s="1" t="str">
         <f t="shared" si="0"/>
         <v>G3EI1_FN6.G3EI1_LN6@etu.uae.ac.ma</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A8" s="1">
         <f t="shared" si="1"/>
         <v>19000047</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C8" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D8" s="2">
         <v>36902</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F7" s="1">
+      <c r="E8" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F8" s="1">
         <v>609826000</v>
       </c>
-      <c r="G7" s="1" t="str">
+      <c r="G8" s="1" t="str">
         <f t="shared" si="0"/>
         <v>G3EI1_FN7.G3EI1_LN7@etu.uae.ac.ma</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A9" s="1">
         <f t="shared" si="1"/>
         <v>19000048</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B9" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C9" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D9" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F8" s="1">
+      <c r="E9" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F9" s="1">
         <v>733909112</v>
       </c>
-      <c r="G8" s="1" t="str">
+      <c r="G9" s="1" t="str">
         <f t="shared" si="0"/>
         <v>G3EI1_FN8.G3EI1_LN8@etu.uae.ac.ma</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A10" s="1">
         <f t="shared" si="1"/>
         <v>19000049</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B10" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C10" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D10" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E9" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F9" s="1">
+      <c r="E10" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F10" s="1">
         <v>665914712</v>
       </c>
-      <c r="G9" s="1" t="str">
+      <c r="G10" s="1" t="str">
         <f t="shared" si="0"/>
         <v>G3EI1_FN9.G3EI1_LN9@etu.uae.ac.ma</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A11" s="1">
         <f t="shared" si="1"/>
         <v>19000050</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B11" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C11" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D11" s="2">
         <v>36592</v>
       </c>
-      <c r="E10" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F10" s="1">
+      <c r="E11" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F11" s="1">
         <v>640034234</v>
       </c>
-      <c r="G10" s="1" t="str">
+      <c r="G11" s="1" t="str">
         <f t="shared" si="0"/>
         <v>G3EI1_FN10.G3EI1_LN10@etu.uae.ac.ma</v>
       </c>

--- a/resources/G3EI1/Students.xlsx
+++ b/resources/G3EI1/Students.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\GestionScolarite-XML\resources\G3EI1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C27CEB9F-7FC9-4AB6-B2F4-9F48B8E5EB64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C565F721-F11A-4E93-9D1E-84F2405FB1D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{991361F8-3EA2-4635-BB5F-906497DA8E54}"/>
   </bookViews>
@@ -500,7 +500,7 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -510,10 +510,10 @@
         <v>25</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>26</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>27</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>28</v>
@@ -533,10 +533,10 @@
         <v>19000041</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>0</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>1</v>
       </c>
       <c r="D2" s="2">
         <v>37595</v>
@@ -548,7 +548,7 @@
         <v>676800387</v>
       </c>
       <c r="G2" s="1" t="str">
-        <f>CONCATENATE(B2,".",C2,"@etu.uae.ac.ma")</f>
+        <f>CONCATENATE(C2,".",B2,"@etu.uae.ac.ma")</f>
         <v>G3EI1_FN1.G3EI1_LN1@etu.uae.ac.ma</v>
       </c>
     </row>
@@ -558,10 +558,10 @@
         <v>19000042</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>4</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>5</v>
@@ -573,20 +573,20 @@
         <v>68391139</v>
       </c>
       <c r="G3" s="1" t="str">
-        <f t="shared" ref="G3:G11" si="0">CONCATENATE(B3,".",C3,"@etu.uae.ac.ma")</f>
+        <f>CONCATENATE(C3,".",B3,"@etu.uae.ac.ma")</f>
         <v>G3EI1_FN2.G3EI1_LN2@etu.uae.ac.ma</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
-        <f t="shared" ref="A4:A11" si="1">A3+1</f>
+        <f t="shared" ref="A4:A11" si="0">A3+1</f>
         <v>19000043</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>7</v>
       </c>
       <c r="D4" s="2">
         <v>36688</v>
@@ -598,20 +598,20 @@
         <v>711976500</v>
       </c>
       <c r="G4" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(C4,".",B4,"@etu.uae.ac.ma")</f>
         <v>G3EI1_FN3.G3EI1_LN3@etu.uae.ac.ma</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>19000044</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>9</v>
       </c>
       <c r="D5" s="2">
         <v>36678</v>
@@ -623,20 +623,20 @@
         <v>778128773</v>
       </c>
       <c r="G5" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(C5,".",B5,"@etu.uae.ac.ma")</f>
         <v>G3EI1_FN4.G3EI1_LN4@etu.uae.ac.ma</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>19000045</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>11</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>12</v>
@@ -648,20 +648,20 @@
         <v>678994006</v>
       </c>
       <c r="G6" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(C6,".",B6,"@etu.uae.ac.ma")</f>
         <v>G3EI1_FN5.G3EI1_LN5@etu.uae.ac.ma</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>19000046</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>14</v>
       </c>
       <c r="D7" s="2">
         <v>37110</v>
@@ -673,20 +673,20 @@
         <v>621236365</v>
       </c>
       <c r="G7" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(C7,".",B7,"@etu.uae.ac.ma")</f>
         <v>G3EI1_FN6.G3EI1_LN6@etu.uae.ac.ma</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>19000047</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="D8" s="2">
         <v>36902</v>
@@ -698,20 +698,20 @@
         <v>609826000</v>
       </c>
       <c r="G8" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(C8,".",B8,"@etu.uae.ac.ma")</f>
         <v>G3EI1_FN7.G3EI1_LN7@etu.uae.ac.ma</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>19000048</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>18</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>19</v>
@@ -723,20 +723,20 @@
         <v>733909112</v>
       </c>
       <c r="G9" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(C9,".",B9,"@etu.uae.ac.ma")</f>
         <v>G3EI1_FN8.G3EI1_LN8@etu.uae.ac.ma</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>19000049</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>21</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>22</v>
@@ -748,20 +748,20 @@
         <v>665914712</v>
       </c>
       <c r="G10" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(C10,".",B10,"@etu.uae.ac.ma")</f>
         <v>G3EI1_FN9.G3EI1_LN9@etu.uae.ac.ma</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>19000050</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>24</v>
       </c>
       <c r="D11" s="2">
         <v>36592</v>
@@ -773,7 +773,7 @@
         <v>640034234</v>
       </c>
       <c r="G11" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(C11,".",B11,"@etu.uae.ac.ma")</f>
         <v>G3EI1_FN10.G3EI1_LN10@etu.uae.ac.ma</v>
       </c>
     </row>

--- a/resources/G3EI1/Students.xlsx
+++ b/resources/G3EI1/Students.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\GestionScolarite-XML\resources\G3EI1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C565F721-F11A-4E93-9D1E-84F2405FB1D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75CEFB61-4A96-4272-AD2A-63803D336D06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{991361F8-3EA2-4635-BB5F-906497DA8E54}"/>
   </bookViews>
@@ -32,83 +32,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="32">
-  <si>
-    <t>G3EI1_FN1</t>
-  </si>
-  <si>
-    <t>G3EI1_LN1</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="158">
   <si>
     <t>G3EI1</t>
   </si>
   <si>
-    <t>G3EI1_FN2</t>
-  </si>
-  <si>
-    <t>G3EI1_LN2</t>
-  </si>
-  <si>
-    <t>14/02/2002</t>
-  </si>
-  <si>
-    <t>G3EI1_FN3</t>
-  </si>
-  <si>
-    <t>G3EI1_LN3</t>
-  </si>
-  <si>
-    <t>G3EI1_FN4</t>
-  </si>
-  <si>
-    <t>G3EI1_LN4</t>
-  </si>
-  <si>
-    <t>G3EI1_FN5</t>
-  </si>
-  <si>
-    <t>G3EI1_LN5</t>
-  </si>
-  <si>
-    <t>20/01/2008</t>
-  </si>
-  <si>
-    <t>G3EI1_FN6</t>
-  </si>
-  <si>
-    <t>G3EI1_LN6</t>
-  </si>
-  <si>
-    <t>G3EI1_FN7</t>
-  </si>
-  <si>
-    <t>G3EI1_LN7</t>
-  </si>
-  <si>
-    <t>G3EI1_FN8</t>
-  </si>
-  <si>
-    <t>G3EI1_LN8</t>
-  </si>
-  <si>
-    <t>13/8/2002</t>
-  </si>
-  <si>
-    <t>G3EI1_FN9</t>
-  </si>
-  <si>
-    <t>G3EI1_LN9</t>
-  </si>
-  <si>
-    <t>25/7/2001</t>
-  </si>
-  <si>
-    <t>G3EI1_FN10</t>
-  </si>
-  <si>
-    <t>G3EI1_LN10</t>
-  </si>
-  <si>
     <t>CNE</t>
   </si>
   <si>
@@ -128,16 +56,482 @@
   </si>
   <si>
     <t>Email</t>
+  </si>
+  <si>
+    <t>John Barrett</t>
+  </si>
+  <si>
+    <t>Aquila Willis</t>
+  </si>
+  <si>
+    <t>Chadwick Haynes</t>
+  </si>
+  <si>
+    <t>Blossom Henry</t>
+  </si>
+  <si>
+    <t>Channing Gregory</t>
+  </si>
+  <si>
+    <t>Nevada Mullins</t>
+  </si>
+  <si>
+    <t>Sheila Baxter</t>
+  </si>
+  <si>
+    <t>Chanda Brooks</t>
+  </si>
+  <si>
+    <t>Aurelia Carney</t>
+  </si>
+  <si>
+    <t>Ignatius Cooper</t>
+  </si>
+  <si>
+    <t>Phillip Hardin</t>
+  </si>
+  <si>
+    <t>Wilma Mayer</t>
+  </si>
+  <si>
+    <t>Cody Solomon</t>
+  </si>
+  <si>
+    <t>Blythe Pitts</t>
+  </si>
+  <si>
+    <t>Bruno Ruiz</t>
+  </si>
+  <si>
+    <t>Leonard Gilmore</t>
+  </si>
+  <si>
+    <t>Nasim Dalton</t>
+  </si>
+  <si>
+    <t>Akeem Reed</t>
+  </si>
+  <si>
+    <t>Bell Delacruz</t>
+  </si>
+  <si>
+    <t>Patrick Benjamin</t>
+  </si>
+  <si>
+    <t>Ray Willis</t>
+  </si>
+  <si>
+    <t>Porter Hall</t>
+  </si>
+  <si>
+    <t>Tanek Terrell</t>
+  </si>
+  <si>
+    <t>Ria Daniels</t>
+  </si>
+  <si>
+    <t>Lana Henson</t>
+  </si>
+  <si>
+    <t>Lane Dodson</t>
+  </si>
+  <si>
+    <t>Cora West</t>
+  </si>
+  <si>
+    <t>Erin Chambers</t>
+  </si>
+  <si>
+    <t>Sydnee Reid</t>
+  </si>
+  <si>
+    <t>Hyacinth Fitzgerald</t>
+  </si>
+  <si>
+    <t>Isabelle Rhodes</t>
+  </si>
+  <si>
+    <t>Jerome Cole</t>
+  </si>
+  <si>
+    <t>Kiara Rogers</t>
+  </si>
+  <si>
+    <t>Bevis Vega</t>
+  </si>
+  <si>
+    <t>Tanya Melton</t>
+  </si>
+  <si>
+    <t>Cole Case</t>
+  </si>
+  <si>
+    <t>Zephania Campbell</t>
+  </si>
+  <si>
+    <t>Maris Randolph</t>
+  </si>
+  <si>
+    <t>Willa Alvarez</t>
+  </si>
+  <si>
+    <t>Sawyer Saunders</t>
+  </si>
+  <si>
+    <t>Louis James</t>
+  </si>
+  <si>
+    <t>Edward Nunez</t>
+  </si>
+  <si>
+    <t>Lucian Justice</t>
+  </si>
+  <si>
+    <t>Bernard Wilcox</t>
+  </si>
+  <si>
+    <t>Rhiannon Small</t>
+  </si>
+  <si>
+    <t>Rudyard Soto</t>
+  </si>
+  <si>
+    <t>Owen Mcpherson</t>
+  </si>
+  <si>
+    <t>Bryar Whitley</t>
+  </si>
+  <si>
+    <t>Maile Hayden</t>
+  </si>
+  <si>
+    <t>Rashad Ramsey</t>
+  </si>
+  <si>
+    <t>Ciaran Flowers</t>
+  </si>
+  <si>
+    <t>Ella Wilcox</t>
+  </si>
+  <si>
+    <t>Oleg Bruce</t>
+  </si>
+  <si>
+    <t>Colin Collier</t>
+  </si>
+  <si>
+    <t>Conan Bradshaw</t>
+  </si>
+  <si>
+    <t>Alisa Dawson</t>
+  </si>
+  <si>
+    <t>Destiny Landry</t>
+  </si>
+  <si>
+    <t>Lane Burt</t>
+  </si>
+  <si>
+    <t>Leandra Faulkner</t>
+  </si>
+  <si>
+    <t>Raymond Weber</t>
+  </si>
+  <si>
+    <t>Maryam Richards</t>
+  </si>
+  <si>
+    <t>Ursula Morrison</t>
+  </si>
+  <si>
+    <t>Odessa Jenkins</t>
+  </si>
+  <si>
+    <t>Hakeem Cooper</t>
+  </si>
+  <si>
+    <t>Isaiah Franklin</t>
+  </si>
+  <si>
+    <t>Valentine Bernard</t>
+  </si>
+  <si>
+    <t>Marvin Wilkinson</t>
+  </si>
+  <si>
+    <t>Cassady Erickson</t>
+  </si>
+  <si>
+    <t>Jelani Ford</t>
+  </si>
+  <si>
+    <t>Yuri Wilkerson</t>
+  </si>
+  <si>
+    <t>Veronica Rich</t>
+  </si>
+  <si>
+    <t>Cara Kaufman</t>
+  </si>
+  <si>
+    <t>Vance Boyle</t>
+  </si>
+  <si>
+    <t>Noelani Bernard</t>
+  </si>
+  <si>
+    <t>Shad Wilson</t>
+  </si>
+  <si>
+    <t>Holmes Baird</t>
+  </si>
+  <si>
+    <t>Macy Holcomb</t>
+  </si>
+  <si>
+    <t>Nasim Weaver</t>
+  </si>
+  <si>
+    <t>Cody Atkins</t>
+  </si>
+  <si>
+    <t>Xenos Stout</t>
+  </si>
+  <si>
+    <t>Devin Mack</t>
+  </si>
+  <si>
+    <t>MacKenzie Chase</t>
+  </si>
+  <si>
+    <t>Julian Ashley</t>
+  </si>
+  <si>
+    <t>Priscilla Booth</t>
+  </si>
+  <si>
+    <t>Sigourney Cervantes</t>
+  </si>
+  <si>
+    <t>Wade Santiago</t>
+  </si>
+  <si>
+    <t>Hamish Vaughn</t>
+  </si>
+  <si>
+    <t>Serina Bowers</t>
+  </si>
+  <si>
+    <t>Malcolm Glover</t>
+  </si>
+  <si>
+    <t>Sonya Soto</t>
+  </si>
+  <si>
+    <t>Reed Wiley</t>
+  </si>
+  <si>
+    <t>Perry Lamb</t>
+  </si>
+  <si>
+    <t>Owen Wright</t>
+  </si>
+  <si>
+    <t>Imogene House</t>
+  </si>
+  <si>
+    <t>Ali Simpson</t>
+  </si>
+  <si>
+    <t>Zephania Hudson</t>
+  </si>
+  <si>
+    <t>Elijah Bradley</t>
+  </si>
+  <si>
+    <t>Jelani Mcneil</t>
+  </si>
+  <si>
+    <t>Rhea Miller</t>
+  </si>
+  <si>
+    <t>Athena Cline</t>
+  </si>
+  <si>
+    <t>01 60 14 96 45</t>
+  </si>
+  <si>
+    <t>09 91 85 89 17</t>
+  </si>
+  <si>
+    <t>09 36 27 26 33</t>
+  </si>
+  <si>
+    <t>07 36 30 23 63</t>
+  </si>
+  <si>
+    <t>07 21 38 18 98</t>
+  </si>
+  <si>
+    <t>08 77 34 32 26</t>
+  </si>
+  <si>
+    <t>01 73 45 15 05</t>
+  </si>
+  <si>
+    <t>01 46 04 80 77</t>
+  </si>
+  <si>
+    <t>04 16 38 15 12</t>
+  </si>
+  <si>
+    <t>06 81 38 60 57</t>
+  </si>
+  <si>
+    <t>08 37 43 31 29</t>
+  </si>
+  <si>
+    <t>08 77 78 47 57</t>
+  </si>
+  <si>
+    <t>04 48 66 93 28</t>
+  </si>
+  <si>
+    <t>05 31 27 34 63</t>
+  </si>
+  <si>
+    <t>08 15 92 53 34</t>
+  </si>
+  <si>
+    <t>08 35 87 48 18</t>
+  </si>
+  <si>
+    <t>05 53 81 89 76</t>
+  </si>
+  <si>
+    <t>04 97 78 25 17</t>
+  </si>
+  <si>
+    <t>03 52 07 39 23</t>
+  </si>
+  <si>
+    <t>07 30 22 75 78</t>
+  </si>
+  <si>
+    <t>06 18 88 61 86</t>
+  </si>
+  <si>
+    <t>03 27 23 75 05</t>
+  </si>
+  <si>
+    <t>08 86 82 84 45</t>
+  </si>
+  <si>
+    <t>02 51 87 10 16</t>
+  </si>
+  <si>
+    <t>04 73 43 44 15</t>
+  </si>
+  <si>
+    <t>04 78 68 08 86</t>
+  </si>
+  <si>
+    <t>06 39 89 67 61</t>
+  </si>
+  <si>
+    <t>03 54 33 51 52</t>
+  </si>
+  <si>
+    <t>02 21 50 79 45</t>
+  </si>
+  <si>
+    <t>02 54 54 30 61</t>
+  </si>
+  <si>
+    <t>08 37 77 34 31</t>
+  </si>
+  <si>
+    <t>01 07 56 83 24</t>
+  </si>
+  <si>
+    <t>03 11 46 32 15</t>
+  </si>
+  <si>
+    <t>02 27 42 28 63</t>
+  </si>
+  <si>
+    <t>06 06 62 74 07</t>
+  </si>
+  <si>
+    <t>06 39 81 37 33</t>
+  </si>
+  <si>
+    <t>06 83 63 57 28</t>
+  </si>
+  <si>
+    <t>09 62 23 55 06</t>
+  </si>
+  <si>
+    <t>08 45 61 63 45</t>
+  </si>
+  <si>
+    <t>04 23 38 82 33</t>
+  </si>
+  <si>
+    <t>01 46 58 73 59</t>
+  </si>
+  <si>
+    <t>03 12 52 23 21</t>
+  </si>
+  <si>
+    <t>09 28 72 46 13</t>
+  </si>
+  <si>
+    <t>01 57 79 71 21</t>
+  </si>
+  <si>
+    <t>03 36 31 50 17</t>
+  </si>
+  <si>
+    <t>04 88 65 78 35</t>
+  </si>
+  <si>
+    <t>02 54 14 42 17</t>
+  </si>
+  <si>
+    <t>05 08 87 11 58</t>
+  </si>
+  <si>
+    <t>08 66 33 05 71</t>
+  </si>
+  <si>
+    <t>06 38 81 29 35</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -181,8 +575,8 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -497,287 +891,1288 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BCB8200-6F24-47CC-84E8-A4DCA3B88261}">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A1" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>31</v>
+      <c r="A1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
-        <v>19000041</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="2">
-        <v>37595</v>
+        <v>19000201</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="3">
+        <v>37187</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2" s="1">
-        <v>676800387</v>
+        <v>0</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>108</v>
       </c>
       <c r="G2" s="1" t="str">
-        <f>CONCATENATE(C2,".",B2,"@etu.uae.ac.ma")</f>
-        <v>G3EI1_FN1.G3EI1_LN1@etu.uae.ac.ma</v>
+        <f>CONCATENATE(SUBSTITUTE(B2," ",""),".",SUBSTITUTE(C2," ",""),"@etu.uae.ac.ma")</f>
+        <v>JohnBarrett.AquilaWillis@etu.uae.ac.ma</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <f>A2+1</f>
-        <v>19000042</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>5</v>
+        <v>19000202</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="3">
+        <v>36365</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F3" s="1">
-        <v>68391139</v>
+        <v>0</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>109</v>
       </c>
       <c r="G3" s="1" t="str">
-        <f>CONCATENATE(C3,".",B3,"@etu.uae.ac.ma")</f>
-        <v>G3EI1_FN2.G3EI1_LN2@etu.uae.ac.ma</v>
+        <f t="shared" ref="G3:G51" si="0">CONCATENATE(SUBSTITUTE(B3," ",""),".",SUBSTITUTE(C3," ",""),"@etu.uae.ac.ma")</f>
+        <v>ChadwickHaynes.BlossomHenry@etu.uae.ac.ma</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
-        <f t="shared" ref="A4:A11" si="0">A3+1</f>
-        <v>19000043</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="2">
-        <v>36688</v>
+        <f t="shared" ref="A4:A51" si="1">A3+1</f>
+        <v>19000203</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="3">
+        <v>37267</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F4" s="1">
-        <v>711976500</v>
+        <v>0</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>110</v>
       </c>
       <c r="G4" s="1" t="str">
-        <f>CONCATENATE(C4,".",B4,"@etu.uae.ac.ma")</f>
-        <v>G3EI1_FN3.G3EI1_LN3@etu.uae.ac.ma</v>
+        <f t="shared" si="0"/>
+        <v>ChanningGregory.NevadaMullins@etu.uae.ac.ma</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
-        <f t="shared" si="0"/>
-        <v>19000044</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="2">
-        <v>36678</v>
+        <f t="shared" si="1"/>
+        <v>19000204</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="3">
+        <v>37600</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F5" s="1">
-        <v>778128773</v>
+        <v>0</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>111</v>
       </c>
       <c r="G5" s="1" t="str">
-        <f>CONCATENATE(C5,".",B5,"@etu.uae.ac.ma")</f>
-        <v>G3EI1_FN4.G3EI1_LN4@etu.uae.ac.ma</v>
+        <f t="shared" si="0"/>
+        <v>SheilaBaxter.ChandaBrooks@etu.uae.ac.ma</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
-        <f t="shared" si="0"/>
-        <v>19000045</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>12</v>
+        <f t="shared" si="1"/>
+        <v>19000205</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="3">
+        <v>36767</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F6" s="1">
-        <v>678994006</v>
+        <v>0</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>112</v>
       </c>
       <c r="G6" s="1" t="str">
-        <f>CONCATENATE(C6,".",B6,"@etu.uae.ac.ma")</f>
-        <v>G3EI1_FN5.G3EI1_LN5@etu.uae.ac.ma</v>
+        <f t="shared" si="0"/>
+        <v>AureliaCarney.IgnatiusCooper@etu.uae.ac.ma</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
-        <f t="shared" si="0"/>
-        <v>19000046</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="2">
-        <v>37110</v>
+        <f t="shared" si="1"/>
+        <v>19000206</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="3">
+        <v>35662</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F7" s="1">
-        <v>621236365</v>
+        <v>0</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>113</v>
       </c>
       <c r="G7" s="1" t="str">
-        <f>CONCATENATE(C7,".",B7,"@etu.uae.ac.ma")</f>
-        <v>G3EI1_FN6.G3EI1_LN6@etu.uae.ac.ma</v>
+        <f t="shared" si="0"/>
+        <v>PhillipHardin.WilmaMayer@etu.uae.ac.ma</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
-        <f t="shared" si="0"/>
-        <v>19000047</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" s="2">
-        <v>36902</v>
+        <f t="shared" si="1"/>
+        <v>19000207</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="3">
+        <v>35599</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F8" s="1">
-        <v>609826000</v>
+        <v>0</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>114</v>
       </c>
       <c r="G8" s="1" t="str">
-        <f>CONCATENATE(C8,".",B8,"@etu.uae.ac.ma")</f>
-        <v>G3EI1_FN7.G3EI1_LN7@etu.uae.ac.ma</v>
+        <f t="shared" si="0"/>
+        <v>CodySolomon.BlythePitts@etu.uae.ac.ma</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
-        <f t="shared" si="0"/>
-        <v>19000048</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>19</v>
+        <f t="shared" si="1"/>
+        <v>19000208</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="3">
+        <v>35626</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F9" s="1">
-        <v>733909112</v>
+        <v>0</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>115</v>
       </c>
       <c r="G9" s="1" t="str">
-        <f>CONCATENATE(C9,".",B9,"@etu.uae.ac.ma")</f>
-        <v>G3EI1_FN8.G3EI1_LN8@etu.uae.ac.ma</v>
+        <f t="shared" si="0"/>
+        <v>BrunoRuiz.LeonardGilmore@etu.uae.ac.ma</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
-        <f t="shared" si="0"/>
-        <v>19000049</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>22</v>
+        <f t="shared" si="1"/>
+        <v>19000209</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="3">
+        <v>37453</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F10" s="1">
-        <v>665914712</v>
+        <v>0</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>116</v>
       </c>
       <c r="G10" s="1" t="str">
-        <f>CONCATENATE(C10,".",B10,"@etu.uae.ac.ma")</f>
-        <v>G3EI1_FN9.G3EI1_LN9@etu.uae.ac.ma</v>
+        <f t="shared" si="0"/>
+        <v>NasimDalton.AkeemReed@etu.uae.ac.ma</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
-        <f t="shared" si="0"/>
-        <v>19000050</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" s="2">
-        <v>36592</v>
+        <f t="shared" si="1"/>
+        <v>19000210</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="3">
+        <v>36908</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F11" s="1">
-        <v>640034234</v>
+        <v>0</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>117</v>
       </c>
       <c r="G11" s="1" t="str">
-        <f>CONCATENATE(C11,".",B11,"@etu.uae.ac.ma")</f>
-        <v>G3EI1_FN10.G3EI1_LN10@etu.uae.ac.ma</v>
+        <f t="shared" si="0"/>
+        <v>BellDelacruz.PatrickBenjamin@etu.uae.ac.ma</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A12" s="1">
+        <f t="shared" si="1"/>
+        <v>19000211</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" s="3">
+        <v>37091</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="G12" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>RayWillis.PorterHall@etu.uae.ac.ma</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A13" s="1">
+        <f t="shared" si="1"/>
+        <v>19000212</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" s="3">
+        <v>35436</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="G13" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>TanekTerrell.RiaDaniels@etu.uae.ac.ma</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A14" s="1">
+        <f t="shared" si="1"/>
+        <v>19000213</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" s="3">
+        <v>35774</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="G14" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>LanaHenson.LaneDodson@etu.uae.ac.ma</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A15" s="1">
+        <f t="shared" si="1"/>
+        <v>19000214</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D15" s="3">
+        <v>37013</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="G15" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>CoraWest.ErinChambers@etu.uae.ac.ma</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A16" s="1">
+        <f t="shared" si="1"/>
+        <v>19000215</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D16" s="3">
+        <v>36524</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="G16" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>SydneeReid.HyacinthFitzgerald@etu.uae.ac.ma</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A17" s="1">
+        <f t="shared" si="1"/>
+        <v>19000216</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D17" s="3">
+        <v>35662</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="G17" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>IsabelleRhodes.JeromeCole@etu.uae.ac.ma</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A18" s="1">
+        <f t="shared" si="1"/>
+        <v>19000217</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D18" s="3">
+        <v>36276</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="G18" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>KiaraRogers.BevisVega@etu.uae.ac.ma</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A19" s="1">
+        <f t="shared" si="1"/>
+        <v>19000218</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D19" s="3">
+        <v>36548</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="G19" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>TanyaMelton.ColeCase@etu.uae.ac.ma</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A20" s="1">
+        <f t="shared" si="1"/>
+        <v>19000219</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D20" s="3">
+        <v>35927</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="G20" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>ZephaniaCampbell.MarisRandolph@etu.uae.ac.ma</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A21" s="1">
+        <f t="shared" si="1"/>
+        <v>19000220</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D21" s="3">
+        <v>36568</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="G21" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>WillaAlvarez.SawyerSaunders@etu.uae.ac.ma</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A22" s="1">
+        <f t="shared" si="1"/>
+        <v>19000221</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D22" s="3">
+        <v>36709</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="G22" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>LouisJames.EdwardNunez@etu.uae.ac.ma</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A23" s="1">
+        <f t="shared" si="1"/>
+        <v>19000222</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D23" s="3">
+        <v>37573</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="G23" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>LucianJustice.BernardWilcox@etu.uae.ac.ma</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A24" s="1">
+        <f t="shared" si="1"/>
+        <v>19000223</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D24" s="3">
+        <v>35654</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="G24" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>RhiannonSmall.RudyardSoto@etu.uae.ac.ma</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A25" s="1">
+        <f t="shared" si="1"/>
+        <v>19000224</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D25" s="3">
+        <v>37005</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="G25" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>OwenMcpherson.BryarWhitley@etu.uae.ac.ma</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A26" s="1">
+        <f t="shared" si="1"/>
+        <v>19000225</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D26" s="3">
+        <v>37047</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="G26" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>MaileHayden.RashadRamsey@etu.uae.ac.ma</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A27" s="1">
+        <f t="shared" si="1"/>
+        <v>19000226</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D27" s="3">
+        <v>36084</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="G27" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>CiaranFlowers.EllaWilcox@etu.uae.ac.ma</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A28" s="1">
+        <f t="shared" si="1"/>
+        <v>19000227</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D28" s="3">
+        <v>36030</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="G28" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>OlegBruce.ColinCollier@etu.uae.ac.ma</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A29" s="1">
+        <f t="shared" si="1"/>
+        <v>19000228</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D29" s="3">
+        <v>36161</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="G29" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>ConanBradshaw.AlisaDawson@etu.uae.ac.ma</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A30" s="1">
+        <f t="shared" si="1"/>
+        <v>19000229</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D30" s="3">
+        <v>36580</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="G30" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>DestinyLandry.LaneBurt@etu.uae.ac.ma</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A31" s="1">
+        <f t="shared" si="1"/>
+        <v>19000230</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D31" s="3">
+        <v>37062</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="G31" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>LeandraFaulkner.RaymondWeber@etu.uae.ac.ma</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A32" s="1">
+        <f t="shared" si="1"/>
+        <v>19000231</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D32" s="3">
+        <v>36300</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="G32" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>MaryamRichards.UrsulaMorrison@etu.uae.ac.ma</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A33" s="1">
+        <f t="shared" si="1"/>
+        <v>19000232</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D33" s="3">
+        <v>37599</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="G33" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>OdessaJenkins.HakeemCooper@etu.uae.ac.ma</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A34" s="1">
+        <f t="shared" si="1"/>
+        <v>19000233</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D34" s="3">
+        <v>36067</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="G34" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>IsaiahFranklin.ValentineBernard@etu.uae.ac.ma</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A35" s="1">
+        <f t="shared" si="1"/>
+        <v>19000234</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D35" s="3">
+        <v>35955</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="G35" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>MarvinWilkinson.CassadyErickson@etu.uae.ac.ma</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A36" s="1">
+        <f t="shared" si="1"/>
+        <v>19000235</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D36" s="3">
+        <v>35565</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="G36" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>JelaniFord.YuriWilkerson@etu.uae.ac.ma</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A37" s="1">
+        <f t="shared" si="1"/>
+        <v>19000236</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D37" s="3">
+        <v>36437</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="G37" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>VeronicaRich.CaraKaufman@etu.uae.ac.ma</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A38" s="1">
+        <f t="shared" si="1"/>
+        <v>19000237</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D38" s="3">
+        <v>37310</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="G38" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>VanceBoyle.NoelaniBernard@etu.uae.ac.ma</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A39" s="1">
+        <f t="shared" si="1"/>
+        <v>19000238</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D39" s="3">
+        <v>35738</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="G39" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>ShadWilson.HolmesBaird@etu.uae.ac.ma</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A40" s="1">
+        <f t="shared" si="1"/>
+        <v>19000239</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D40" s="3">
+        <v>36522</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="G40" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>MacyHolcomb.NasimWeaver@etu.uae.ac.ma</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A41" s="1">
+        <f t="shared" si="1"/>
+        <v>19000240</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D41" s="3">
+        <v>36413</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="G41" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>CodyAtkins.XenosStout@etu.uae.ac.ma</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A42" s="1">
+        <f t="shared" si="1"/>
+        <v>19000241</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D42" s="3">
+        <v>36447</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="G42" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>DevinMack.MacKenzieChase@etu.uae.ac.ma</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A43" s="1">
+        <f t="shared" si="1"/>
+        <v>19000242</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D43" s="3">
+        <v>35491</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="G43" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>JulianAshley.PriscillaBooth@etu.uae.ac.ma</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A44" s="1">
+        <f t="shared" si="1"/>
+        <v>19000243</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="D44" s="3">
+        <v>37318</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="G44" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>SigourneyCervantes.WadeSantiago@etu.uae.ac.ma</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A45" s="1">
+        <f t="shared" si="1"/>
+        <v>19000244</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D45" s="3">
+        <v>36421</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="G45" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>HamishVaughn.SerinaBowers@etu.uae.ac.ma</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A46" s="1">
+        <f t="shared" si="1"/>
+        <v>19000245</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D46" s="3">
+        <v>36029</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="G46" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>MalcolmGlover.SonyaSoto@etu.uae.ac.ma</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A47" s="1">
+        <f t="shared" si="1"/>
+        <v>19000246</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D47" s="3">
+        <v>35814</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="G47" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>ReedWiley.PerryLamb@etu.uae.ac.ma</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A48" s="1">
+        <f t="shared" si="1"/>
+        <v>19000247</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D48" s="3">
+        <v>37226</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="G48" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>OwenWright.ImogeneHouse@etu.uae.ac.ma</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A49" s="1">
+        <f t="shared" si="1"/>
+        <v>19000248</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D49" s="3">
+        <v>36082</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="G49" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>AliSimpson.ZephaniaHudson@etu.uae.ac.ma</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A50" s="1">
+        <f t="shared" si="1"/>
+        <v>19000249</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D50" s="3">
+        <v>35515</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="G50" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>ElijahBradley.JelaniMcneil@etu.uae.ac.ma</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A51" s="1">
+        <f t="shared" si="1"/>
+        <v>19000250</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D51" s="3">
+        <v>37425</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="G51" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>RheaMiller.AthenaCline@etu.uae.ac.ma</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>